--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1531328.581562569</v>
+        <v>1530616.279739525</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1215,11 +1215,11 @@
         <v>3.199249640013477</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.817899082923868</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>3.199249640013477</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554827</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240818</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>8.284748901596</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538032</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958189</v>
+        <v>72.00227733958195</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>129.6399191521678</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
         <v>181.6344501416383</v>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>84.08572130715424</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298063</v>
+        <v>9.36988737129812</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>6.869455874161034</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693645</v>
+        <v>13.44252716693651</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242242</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382075</v>
+        <v>59.07980534382081</v>
       </c>
       <c r="V12" t="n">
-        <v>173.8675237535093</v>
+        <v>62.50065676233444</v>
       </c>
       <c r="W12" t="n">
-        <v>188.4979333192472</v>
+        <v>88.55631942394379</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640275</v>
+        <v>39.1646502864028</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095776</v>
+        <v>45.23602198095782</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256626</v>
+        <v>25.28169700256632</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311271</v>
+        <v>57.28978021311276</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725515</v>
+        <v>45.61329429725521</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138205</v>
+        <v>66.9607510313821</v>
       </c>
       <c r="W13" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517467</v>
+        <v>43.77119125517473</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110056</v>
+        <v>38.99300866110062</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>178.2370309725641</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554827</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240818</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3176172467514</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>72.00227733958189</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>112.906637922869</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="15">
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>9.369887371298063</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>49.31994109041291</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>13.44252716693645</v>
       </c>
       <c r="T15" t="n">
-        <v>129.2135773671081</v>
+        <v>36.82265945242242</v>
       </c>
       <c r="U15" t="n">
         <v>59.07980534382075</v>
@@ -1746,10 +1746,10 @@
         <v>62.50065676233439</v>
       </c>
       <c r="W15" t="n">
+        <v>88.55631942394373</v>
+      </c>
+      <c r="X15" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="X15" t="n">
-        <v>39.16465028640275</v>
       </c>
       <c r="Y15" t="n">
         <v>45.23602198095776</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084905</v>
       </c>
       <c r="C17" t="n">
         <v>52.7578264541944</v>
@@ -1859,7 +1859,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156616</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>23.4321126821676</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878174</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X17" t="n">
         <v>62.33504336772171</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,31 +1965,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161034</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W18" t="n">
-        <v>118.4317923311107</v>
+        <v>0.3360846735034357</v>
       </c>
       <c r="X18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2096,7 +2096,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156616</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>59.72697927954421</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>100.110196925789</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.7198007890777</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
-        <v>166.0289796675929</v>
+        <v>24.43972300435421</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2558,22 +2558,22 @@
         <v>136.7207468571778</v>
       </c>
       <c r="D26" t="n">
-        <v>124.2874091182263</v>
+        <v>124.2874091182262</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7144991160125</v>
+        <v>189.7144991160124</v>
       </c>
       <c r="G26" t="n">
         <v>205.3534224386475</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147505</v>
+        <v>27.525018691475</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444719</v>
+        <v>14.03224403444713</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818252</v>
+        <v>8.981130875818209</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864876</v>
+        <v>36.66579096864871</v>
       </c>
       <c r="V26" t="n">
         <v>107.395033085151</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4117133017659</v>
+        <v>124.4117133017658</v>
       </c>
       <c r="X26" t="n">
         <v>146.2979637707051</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8008168944489</v>
+        <v>168.8008168944488</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>4.860938559341713</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>31.49361391370719</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489291</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288762</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.1641703914012</v>
       </c>
       <c r="W27" t="n">
-        <v>53.2198330530106</v>
+        <v>53.21983305301055</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469617</v>
+        <v>3.82816391546956</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>9.899535610024571</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217958</v>
+        <v>21.95329384217952</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632202</v>
+        <v>10.27680792632196</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456462</v>
+        <v>75.17180644456457</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044892</v>
+        <v>31.62426466044886</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533434</v>
+        <v>76.82595656533428</v>
       </c>
       <c r="X28" t="n">
-        <v>8.43470488424154</v>
+        <v>8.434704884241484</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.65652229016743</v>
+        <v>3.656522290167374</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D29" t="n">
         <v>124.2874091182263</v>
@@ -2804,13 +2804,13 @@
         <v>189.7144991160125</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
         <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147505</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444722</v>
+        <v>14.03224403444719</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818295</v>
+        <v>8.981130875818266</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864876</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W29" t="n">
         <v>124.4117133017659</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y29" t="n">
         <v>168.8008168944489</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,19 +2877,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>26.57069135584117</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>45.01783410465575</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288765</v>
+        <v>23.74331897288762</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140129</v>
+        <v>27.16417039140126</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301063</v>
+        <v>53.2198330530106</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469645</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024657</v>
+        <v>9.899535610024628</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217958</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632202</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456465</v>
+        <v>75.17180644456462</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044892</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533434</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241569</v>
+        <v>8.43470488424154</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167459</v>
+        <v>3.65652229016743</v>
       </c>
     </row>
     <row r="32">
@@ -3032,13 +3032,13 @@
         <v>135.8930369903136</v>
       </c>
       <c r="D32" t="n">
-        <v>123.4596992513621</v>
+        <v>123.459699251362</v>
       </c>
       <c r="E32" t="n">
         <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
-        <v>188.8867892491483</v>
+        <v>188.8867892491482</v>
       </c>
       <c r="G32" t="n">
         <v>204.5257125717833</v>
@@ -3047,7 +3047,7 @@
         <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461081</v>
+        <v>26.69730882461079</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758295</v>
+        <v>13.20453416758292</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954012</v>
+        <v>8.153421008953984</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178452</v>
+        <v>35.8380811017845</v>
       </c>
       <c r="V32" t="n">
         <v>106.5673232182868</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5840034349017</v>
+        <v>123.5840034349016</v>
       </c>
       <c r="X32" t="n">
         <v>145.4702539038409</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.9731070275847</v>
+        <v>167.9731070275846</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>98.70653329838555</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890776</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250504</v>
+        <v>0.6584632146250228</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602338</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V33" t="n">
-        <v>111.3413704887593</v>
+        <v>26.33646052453699</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>52.39212318614634</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605377</v>
+        <v>3.000454048605349</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160389</v>
+        <v>9.07182574316036</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531533</v>
+        <v>21.12558397531531</v>
       </c>
       <c r="T34" t="n">
-        <v>9.44909805945778</v>
+        <v>9.449098059457754</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770038</v>
+        <v>74.34409657770036</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358468</v>
+        <v>30.79655479358465</v>
       </c>
       <c r="W34" t="n">
-        <v>75.9982466984701</v>
+        <v>75.99824669847007</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377301</v>
+        <v>7.606995017377272</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303191</v>
+        <v>2.828812423303162</v>
       </c>
     </row>
     <row r="35">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>73.29464421933557</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3387,22 +3387,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R36" t="n">
-        <v>54.36334898738222</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>36.97207935338439</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3591,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>97.4723583903609</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280694968886</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.4608093700285</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3740,22 +3740,22 @@
         <v>133.0774711623573</v>
       </c>
       <c r="C41" t="n">
-        <v>109.1957281657028</v>
+        <v>109.1957281657027</v>
       </c>
       <c r="D41" t="n">
-        <v>96.7623904267513</v>
+        <v>96.76239042675121</v>
       </c>
       <c r="E41" t="n">
-        <v>130.4691428461602</v>
+        <v>130.4691428461601</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1894804245375</v>
+        <v>162.1894804245374</v>
       </c>
       <c r="G41" t="n">
-        <v>177.8284037471726</v>
+        <v>177.8284037471725</v>
       </c>
       <c r="H41" t="n">
-        <v>106.0116293930746</v>
+        <v>106.0116293930745</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173763</v>
+        <v>9.140772277173678</v>
       </c>
       <c r="V41" t="n">
-        <v>79.87001439367603</v>
+        <v>79.87001439367594</v>
       </c>
       <c r="W41" t="n">
-        <v>96.8866946102909</v>
+        <v>96.88669461029082</v>
       </c>
       <c r="X41" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2757982029739</v>
+        <v>141.2757982029738</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>71.5876247108565</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -3828,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3861,28 +3861,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>117.1401514451104</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153561</v>
+        <v>25.69481436153552</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308962</v>
+        <v>47.64678775308953</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973918</v>
+        <v>4.099245968973833</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385934</v>
+        <v>49.30093787385925</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>130.4691428461601</v>
       </c>
       <c r="F44" t="n">
-        <v>162.1894804245379</v>
+        <v>162.1894804245375</v>
       </c>
       <c r="G44" t="n">
         <v>177.8284037471725</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>182.6555517496841</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153558</v>
       </c>
       <c r="X45" t="n">
-        <v>83.45493821344979</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>6.590454258427762</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="9">
@@ -4863,7 +4863,7 @@
         <v>3.487505264143985</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="E9" t="n">
         <v>0.2559399712010781</v>
@@ -4887,16 +4887,16 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="L9" t="n">
+        <v>0.2559399712010781</v>
+      </c>
+      <c r="M9" t="n">
         <v>3.42319711481442</v>
       </c>
-      <c r="M9" t="n">
-        <v>6.590454258427762</v>
-      </c>
       <c r="N9" t="n">
-        <v>9.757711402041103</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="O9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
@@ -4905,13 +4905,13 @@
         <v>12.79699856005391</v>
       </c>
       <c r="R9" t="n">
-        <v>9.950635850029798</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="S9" t="n">
-        <v>9.950635850029798</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="T9" t="n">
-        <v>9.950635850029798</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="U9" t="n">
         <v>6.719070557086891</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>439.5571809656793</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="C11" t="n">
-        <v>439.5571809656793</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="D11" t="n">
-        <v>439.5571809656793</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="E11" t="n">
-        <v>439.5571809656793</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="F11" t="n">
-        <v>439.5571809656793</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G11" t="n">
-        <v>249.1552281179549</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554803</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553977</v>
@@ -5042,49 +5042,49 @@
         <v>115.4328134021288</v>
       </c>
       <c r="K11" t="n">
-        <v>267.8825731524723</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="L11" t="n">
-        <v>314.6034156332324</v>
+        <v>302.0457673881835</v>
       </c>
       <c r="M11" t="n">
-        <v>395.4653147201797</v>
+        <v>382.9076664751308</v>
       </c>
       <c r="N11" t="n">
-        <v>470.7932078558721</v>
+        <v>479.8266174464446</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485399</v>
+        <v>666.4395714324993</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324992</v>
+        <v>666.4395714324993</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="R11" t="n">
-        <v>745.6233000430533</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="S11" t="n">
-        <v>695.7558955931742</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="T11" t="n">
-        <v>695.7558955931742</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="U11" t="n">
-        <v>623.0263225228896</v>
+        <v>681.2621602067038</v>
       </c>
       <c r="V11" t="n">
-        <v>623.0263225228896</v>
+        <v>550.3127469216859</v>
       </c>
       <c r="W11" t="n">
-        <v>623.0263225228896</v>
+        <v>388.9509290704746</v>
       </c>
       <c r="X11" t="n">
-        <v>439.5571809656793</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="Y11" t="n">
-        <v>439.5571809656793</v>
+        <v>205.4817875132642</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>185.3244836027889</v>
+        <v>24.5443673638207</v>
       </c>
       <c r="C12" t="n">
-        <v>175.859950904508</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D12" t="n">
         <v>15.07983466553977</v>
@@ -5124,46 +5124,46 @@
         <v>53.04316068142015</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188889</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596542</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596542</v>
+        <v>610.9722821020001</v>
       </c>
       <c r="S12" t="n">
-        <v>733.4745786900214</v>
+        <v>597.3939718323672</v>
       </c>
       <c r="T12" t="n">
-        <v>696.279973182524</v>
+        <v>406.9920189846428</v>
       </c>
       <c r="U12" t="n">
-        <v>636.6034021281596</v>
+        <v>347.3154479302784</v>
       </c>
       <c r="V12" t="n">
-        <v>460.9796407609784</v>
+        <v>284.1834714026678</v>
       </c>
       <c r="W12" t="n">
-        <v>270.5776879132541</v>
+        <v>194.7326437017145</v>
       </c>
       <c r="X12" t="n">
-        <v>231.0174350987058</v>
+        <v>155.1723908871662</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.3244836027889</v>
+        <v>109.4794393912492</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.60586471875849</v>
       </c>
       <c r="C13" t="n">
-        <v>26.65400701482432</v>
+        <v>27.18003706804298</v>
       </c>
       <c r="D13" t="n">
-        <v>59.2899647781579</v>
+        <v>27.18003706804298</v>
       </c>
       <c r="E13" t="n">
-        <v>95.39736648959234</v>
+        <v>63.28743877947736</v>
       </c>
       <c r="F13" t="n">
-        <v>95.39736648959234</v>
+        <v>102.1166068947523</v>
       </c>
       <c r="G13" t="n">
-        <v>95.39736648959234</v>
+        <v>111.4696212284085</v>
       </c>
       <c r="H13" t="n">
-        <v>95.39736648959234</v>
+        <v>111.4696212284085</v>
       </c>
       <c r="I13" t="n">
-        <v>101.5512152481442</v>
+        <v>124.6319643526602</v>
       </c>
       <c r="J13" t="n">
-        <v>158.8807852526016</v>
+        <v>181.9615343571175</v>
       </c>
       <c r="K13" t="n">
-        <v>158.8807852526016</v>
+        <v>181.9615343571175</v>
       </c>
       <c r="L13" t="n">
-        <v>158.8807852526016</v>
+        <v>212.5590407811545</v>
       </c>
       <c r="M13" t="n">
-        <v>310.2828700192342</v>
+        <v>212.5590407811545</v>
       </c>
       <c r="N13" t="n">
-        <v>470.2946957351829</v>
+        <v>212.5590407811545</v>
       </c>
       <c r="O13" t="n">
-        <v>470.2946957351829</v>
+        <v>351.8217271348926</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351829</v>
+        <v>470.2946957351834</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426677</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633078</v>
+        <v>495.1795934633082</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015778</v>
+        <v>437.3111286015782</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578857</v>
+        <v>391.237093957886</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604133</v>
+        <v>279.6125557604135</v>
       </c>
       <c r="V13" t="n">
-        <v>211.975433506492</v>
+        <v>211.9754335064922</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117132</v>
+        <v>98.68003660117144</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099488</v>
+        <v>54.46671210099494</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553977</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>619.5945859884712</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C14" t="n">
-        <v>619.5945859884712</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D14" t="n">
-        <v>619.5945859884712</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E14" t="n">
-        <v>619.5945859884712</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F14" t="n">
-        <v>429.1926331407468</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G14" t="n">
-        <v>249.1552281179548</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554806</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021288</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K14" t="n">
-        <v>115.4902538590854</v>
+        <v>97.29136080446747</v>
       </c>
       <c r="L14" t="n">
-        <v>162.2110963398455</v>
+        <v>144.0122032852276</v>
       </c>
       <c r="M14" t="n">
-        <v>243.0729954267928</v>
+        <v>330.6251572712823</v>
       </c>
       <c r="N14" t="n">
-        <v>318.4008885624852</v>
+        <v>405.9530504069747</v>
       </c>
       <c r="O14" t="n">
-        <v>505.0138425485399</v>
+        <v>592.5660043930294</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324992</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0894290049694</v>
+        <v>737.0894290049696</v>
       </c>
       <c r="S14" t="n">
-        <v>737.0894290049694</v>
+        <v>737.0894290049696</v>
       </c>
       <c r="T14" t="n">
-        <v>692.3241590587559</v>
+        <v>737.0894290049696</v>
       </c>
       <c r="U14" t="n">
-        <v>619.5945859884712</v>
+        <v>664.3598559346848</v>
       </c>
       <c r="V14" t="n">
-        <v>619.5945859884712</v>
+        <v>550.3127469216856</v>
       </c>
       <c r="W14" t="n">
-        <v>619.5945859884712</v>
+        <v>388.9509290704745</v>
       </c>
       <c r="X14" t="n">
-        <v>619.5945859884712</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="Y14" t="n">
-        <v>619.5945859884712</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>204.4921089325761</v>
+        <v>247.9256935559546</v>
       </c>
       <c r="C15" t="n">
-        <v>15.07983466553977</v>
+        <v>238.4611608576737</v>
       </c>
       <c r="D15" t="n">
-        <v>15.07983466553977</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="E15" t="n">
         <v>15.07983466553977</v>
@@ -5364,43 +5364,43 @@
         <v>170.3760798097942</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188889</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0528889596542</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="R15" t="n">
-        <v>747.0528889596542</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="S15" t="n">
-        <v>733.4745786900214</v>
+        <v>733.4745786900215</v>
       </c>
       <c r="T15" t="n">
-        <v>602.9558136727405</v>
+        <v>696.2799731825241</v>
       </c>
       <c r="U15" t="n">
-        <v>543.2792426183761</v>
+        <v>636.6034021281597</v>
       </c>
       <c r="V15" t="n">
-        <v>480.1472660907656</v>
+        <v>573.4714256005492</v>
       </c>
       <c r="W15" t="n">
-        <v>289.7453132430412</v>
+        <v>484.0205978995959</v>
       </c>
       <c r="X15" t="n">
-        <v>250.185060428493</v>
+        <v>293.6186450518715</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.4921089325761</v>
+        <v>247.9256935559546</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.07983466553977</v>
+        <v>15.60586471875854</v>
       </c>
       <c r="C16" t="n">
-        <v>26.65400701482432</v>
+        <v>27.18003706804309</v>
       </c>
       <c r="D16" t="n">
-        <v>59.2899647781579</v>
+        <v>27.18003706804309</v>
       </c>
       <c r="E16" t="n">
-        <v>95.39736648959234</v>
+        <v>63.28743877947753</v>
       </c>
       <c r="F16" t="n">
-        <v>95.39736648959234</v>
+        <v>63.28743877947753</v>
       </c>
       <c r="G16" t="n">
-        <v>104.7503808232486</v>
+        <v>63.28743877947753</v>
       </c>
       <c r="H16" t="n">
-        <v>116.9510086566658</v>
+        <v>75.48806661289478</v>
       </c>
       <c r="I16" t="n">
-        <v>130.1133517809176</v>
+        <v>88.65040973714657</v>
       </c>
       <c r="J16" t="n">
-        <v>130.1133517809176</v>
+        <v>145.9799797416039</v>
       </c>
       <c r="K16" t="n">
-        <v>130.1133517809176</v>
+        <v>145.9799797416039</v>
       </c>
       <c r="L16" t="n">
-        <v>130.1133517809176</v>
+        <v>290.516463167444</v>
       </c>
       <c r="M16" t="n">
-        <v>221.4421490729809</v>
+        <v>351.8217271348921</v>
       </c>
       <c r="N16" t="n">
-        <v>381.4539747889295</v>
+        <v>351.8217271348921</v>
       </c>
       <c r="O16" t="n">
-        <v>520.7166611426677</v>
+        <v>351.8217271348921</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426677</v>
+        <v>470.2946957351829</v>
       </c>
       <c r="Q16" t="n">
         <v>520.7166611426677</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961951</v>
+        <v>463.3923242961947</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040795</v>
+        <v>410.1015905040792</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210061</v>
+        <v>369.3697837210055</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718629</v>
+        <v>294.5907522718625</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940557</v>
+        <v>187.7709757940553</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116214</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H17" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993307</v>
+        <v>32.34949505844932</v>
       </c>
       <c r="J17" t="n">
-        <v>225.0325002150139</v>
+        <v>218.9624490445041</v>
       </c>
       <c r="K17" t="n">
-        <v>225.0325002150139</v>
+        <v>218.9624490445041</v>
       </c>
       <c r="L17" t="n">
-        <v>271.753342695774</v>
+        <v>265.6832915252642</v>
       </c>
       <c r="M17" t="n">
-        <v>352.6152417827213</v>
+        <v>346.5451906122115</v>
       </c>
       <c r="N17" t="n">
-        <v>427.9431349184136</v>
+        <v>533.1581445982663</v>
       </c>
       <c r="O17" t="n">
-        <v>462.1637696110814</v>
+        <v>567.3787792909341</v>
       </c>
       <c r="P17" t="n">
-        <v>462.1637696110814</v>
+        <v>567.3787792909341</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.1637696110814</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="R17" t="n">
-        <v>563.7042339002528</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="S17" t="n">
-        <v>632.9356035051037</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1675751369972</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879306</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235044</v>
+        <v>689.4655660235038</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530784</v>
+        <v>626.5008757530778</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122041</v>
+        <v>540.8060308122039</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>68.0850572755424</v>
+        <v>175.5075509482957</v>
       </c>
       <c r="C18" t="n">
-        <v>68.0850572755424</v>
+        <v>175.5075509482957</v>
       </c>
       <c r="D18" t="n">
-        <v>68.0850572755424</v>
+        <v>175.5075509482957</v>
       </c>
       <c r="E18" t="n">
-        <v>68.0850572755424</v>
+        <v>175.5075509482957</v>
       </c>
       <c r="F18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J18" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142017</v>
       </c>
       <c r="L18" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188887</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0528889596542</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="R18" t="n">
-        <v>747.0528889596542</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="S18" t="n">
-        <v>747.0528889596542</v>
+        <v>556.6509361119299</v>
       </c>
       <c r="T18" t="n">
-        <v>747.0528889596542</v>
+        <v>556.6509361119299</v>
       </c>
       <c r="U18" t="n">
-        <v>747.0528889596542</v>
+        <v>366.2489832642054</v>
       </c>
       <c r="V18" t="n">
-        <v>747.0528889596542</v>
+        <v>175.847030416481</v>
       </c>
       <c r="W18" t="n">
-        <v>627.4248158979262</v>
+        <v>175.5075509482957</v>
       </c>
       <c r="X18" t="n">
-        <v>437.0228630502019</v>
+        <v>175.5075509482957</v>
       </c>
       <c r="Y18" t="n">
-        <v>246.6209102024775</v>
+        <v>175.5075509482957</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961945</v>
+        <v>463.3923242961939</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040789</v>
+        <v>410.1015905040783</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210053</v>
+        <v>369.369783721005</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718617</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940549</v>
+        <v>187.7709757940547</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116214</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95335735993307</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J20" t="n">
-        <v>70.95335735993307</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K20" t="n">
-        <v>70.95335735993307</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="L20" t="n">
-        <v>117.6741998406932</v>
+        <v>248.4136311323546</v>
       </c>
       <c r="M20" t="n">
-        <v>198.5360989276405</v>
+        <v>435.0265851184093</v>
       </c>
       <c r="N20" t="n">
-        <v>273.8639920633328</v>
+        <v>621.6395391044641</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0846267560006</v>
+        <v>655.8601737971319</v>
       </c>
       <c r="P20" t="n">
-        <v>308.0846267560006</v>
+        <v>655.8601737971319</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.1637696110814</v>
+        <v>655.8601737971319</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002528</v>
+        <v>707.1675751369974</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051037</v>
+        <v>707.1675751369974</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369972</v>
+        <v>707.1675751369974</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879302</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235032</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530773</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122029</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>610.972282102</v>
+        <v>248.973320644675</v>
       </c>
       <c r="C21" t="n">
-        <v>610.972282102</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="D21" t="n">
-        <v>450.1921658630317</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="E21" t="n">
-        <v>276.6289619844462</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F21" t="n">
-        <v>116.2012457016903</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G21" t="n">
         <v>15.07983466553977</v>
@@ -5841,40 +5841,40 @@
         <v>352.0527264137996</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188889</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0528889596542</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="R21" t="n">
-        <v>610.972282102</v>
+        <v>617.9111264193346</v>
       </c>
       <c r="S21" t="n">
-        <v>610.972282102</v>
+        <v>617.9111264193346</v>
       </c>
       <c r="T21" t="n">
-        <v>610.972282102</v>
+        <v>617.9111264193346</v>
       </c>
       <c r="U21" t="n">
-        <v>610.972282102</v>
+        <v>427.5091735716101</v>
       </c>
       <c r="V21" t="n">
-        <v>610.972282102</v>
+        <v>427.5091735716101</v>
       </c>
       <c r="W21" t="n">
-        <v>610.972282102</v>
+        <v>427.5091735716101</v>
       </c>
       <c r="X21" t="n">
-        <v>610.972282102</v>
+        <v>427.5091735716101</v>
       </c>
       <c r="Y21" t="n">
-        <v>610.972282102</v>
+        <v>427.5091735716101</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961944</v>
+        <v>463.392324296194</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040788</v>
+        <v>410.1015905040784</v>
       </c>
       <c r="D23" t="n">
         <v>369.3697837210051</v>
       </c>
       <c r="E23" t="n">
-        <v>294.590752271862</v>
+        <v>294.5907522718618</v>
       </c>
       <c r="F23" t="n">
         <v>187.7709757940548</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116214</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993307</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J23" t="n">
-        <v>257.5663113459877</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K23" t="n">
-        <v>257.5663113459877</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L23" t="n">
-        <v>304.2871538267478</v>
+        <v>75.39579214852844</v>
       </c>
       <c r="M23" t="n">
-        <v>385.1490529136951</v>
+        <v>156.2576912354757</v>
       </c>
       <c r="N23" t="n">
-        <v>460.4769460493875</v>
+        <v>342.8706452215305</v>
       </c>
       <c r="O23" t="n">
-        <v>494.6975807420553</v>
+        <v>377.0912799141983</v>
       </c>
       <c r="P23" t="n">
-        <v>494.6975807420553</v>
+        <v>563.704233900253</v>
       </c>
       <c r="Q23" t="n">
-        <v>681.3105347281099</v>
+        <v>563.704233900253</v>
       </c>
       <c r="R23" t="n">
-        <v>753.9917332769886</v>
+        <v>563.704233900253</v>
       </c>
       <c r="S23" t="n">
-        <v>753.9917332769886</v>
+        <v>632.9356035051039</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9917332769886</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879303</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235034</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530774</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122034</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
         <v>53.04316068142015</v>
@@ -6075,43 +6075,43 @@
         <v>170.3760798097943</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137995</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188887</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9917332769886</v>
+        <v>610.9722821020002</v>
       </c>
       <c r="S24" t="n">
-        <v>586.2856932087129</v>
+        <v>586.2856932087132</v>
       </c>
       <c r="T24" t="n">
-        <v>395.8837403609886</v>
+        <v>586.2856932087132</v>
       </c>
       <c r="U24" t="n">
-        <v>395.8837403609886</v>
+        <v>586.2856932087132</v>
       </c>
       <c r="V24" t="n">
-        <v>395.8837403609886</v>
+        <v>395.8837403609887</v>
       </c>
       <c r="W24" t="n">
-        <v>395.8837403609886</v>
+        <v>395.8837403609887</v>
       </c>
       <c r="X24" t="n">
         <v>205.4817875132642</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="26">
@@ -6203,37 +6203,37 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874114</v>
+        <v>882.7966579874109</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942535</v>
+        <v>757.253820494253</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350262</v>
+        <v>597.6637583350256</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471347</v>
+        <v>406.0329511471342</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141572</v>
+        <v>198.6052517141569</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845021</v>
+        <v>63.71974859845015</v>
       </c>
       <c r="I26" t="n">
         <v>35.91669941514207</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589549</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K26" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528781</v>
       </c>
       <c r="L26" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523988</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581073</v>
+        <v>926.2253300581071</v>
       </c>
       <c r="N26" t="n">
         <v>1212.90312621256</v>
@@ -6254,22 +6254,22 @@
         <v>1781.660986883924</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.58913751441</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621684</v>
+        <v>1627.073153621683</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347172</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>241.2916345196945</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C27" t="n">
-        <v>241.2916345196945</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D27" t="n">
-        <v>241.2916345196945</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E27" t="n">
-        <v>67.72843064110893</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F27" t="n">
-        <v>67.72843064110893</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G27" t="n">
         <v>35.91669941514207</v>
@@ -6324,31 +6324,31 @@
         <v>793.1206204512955</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512955</v>
+        <v>786.1817761339611</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512955</v>
+        <v>786.1817761339611</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512955</v>
+        <v>592.6557242955729</v>
       </c>
       <c r="T27" t="n">
-        <v>791.6194355204982</v>
+        <v>375.5133772193201</v>
       </c>
       <c r="U27" t="n">
-        <v>767.6362850428339</v>
+        <v>135.8890645962003</v>
       </c>
       <c r="V27" t="n">
-        <v>524.556566946468</v>
+        <v>108.4505086452899</v>
       </c>
       <c r="W27" t="n">
-        <v>470.7991598222149</v>
+        <v>54.69310152103687</v>
       </c>
       <c r="X27" t="n">
-        <v>466.9323275843668</v>
+        <v>50.82626928318882</v>
       </c>
       <c r="Y27" t="n">
-        <v>241.2916345196945</v>
+        <v>40.82673836397208</v>
       </c>
     </row>
     <row r="28">
@@ -6358,73 +6358,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.6734495372623</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C28" t="n">
-        <v>106.2307433937707</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D28" t="n">
-        <v>173.849822664328</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="E28" t="n">
-        <v>173.849822664328</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="F28" t="n">
-        <v>173.849822664328</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="G28" t="n">
-        <v>173.849822664328</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="H28" t="n">
-        <v>173.849822664328</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="I28" t="n">
-        <v>173.849822664328</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="J28" t="n">
-        <v>266.1625141760092</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="K28" t="n">
-        <v>266.1625141760092</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="L28" t="n">
-        <v>266.1625141760092</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="M28" t="n">
-        <v>266.1625141760092</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="N28" t="n">
-        <v>266.1625141760092</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1625141760092</v>
+        <v>170.8031857866168</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1625141760092</v>
+        <v>170.8031857866168</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760092</v>
+        <v>256.2082727013255</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909793</v>
+        <v>243.987469890979</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239874</v>
+        <v>233.6068558239871</v>
       </c>
       <c r="U28" t="n">
-        <v>157.675738203215</v>
+        <v>157.6757382032148</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259939</v>
+        <v>125.7320365259937</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737335</v>
+        <v>48.13006019737324</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389705</v>
+        <v>39.61015627389699</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91669941514207</v>
@@ -6440,34 +6440,34 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874106</v>
+        <v>882.7966579874111</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942527</v>
+        <v>757.2538204942532</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350252</v>
+        <v>597.6637583350258</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471339</v>
+        <v>406.0329511471344</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141566</v>
+        <v>198.6052517141571</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845024</v>
+        <v>63.71974859845021</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589548</v>
+        <v>171.2527996589549</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528779</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523989</v>
+        <v>634.013527952399</v>
       </c>
       <c r="M29" t="n">
         <v>926.2253300581074</v>
@@ -6485,25 +6485,25 @@
         <v>1777.417797666886</v>
       </c>
       <c r="R29" t="n">
-        <v>1795.834970757103</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.58913751441</v>
+        <v>1772.589137514411</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y29" t="n">
         <v>1183.123159715704</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>628.6025840397302</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C30" t="n">
-        <v>628.6025840397302</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D30" t="n">
-        <v>628.6025840397302</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E30" t="n">
-        <v>455.0393801611447</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F30" t="n">
-        <v>294.6116638783888</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G30" t="n">
-        <v>144.3645886514929</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H30" t="n">
-        <v>144.3645886514929</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I30" t="n">
         <v>35.91669941514207</v>
@@ -6564,28 +6564,28 @@
         <v>793.1206204512955</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512955</v>
+        <v>766.2815382736782</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512955</v>
+        <v>766.2815382736782</v>
       </c>
       <c r="T30" t="n">
-        <v>747.648060749623</v>
+        <v>549.1391911974254</v>
       </c>
       <c r="U30" t="n">
-        <v>723.6649102719588</v>
+        <v>525.1560407197611</v>
       </c>
       <c r="V30" t="n">
-        <v>696.2263543210483</v>
+        <v>497.7174847688507</v>
       </c>
       <c r="W30" t="n">
-        <v>642.4689471967952</v>
+        <v>443.9600776445976</v>
       </c>
       <c r="X30" t="n">
-        <v>638.602114958947</v>
+        <v>224.452083261294</v>
       </c>
       <c r="Y30" t="n">
-        <v>628.6025840397302</v>
+        <v>214.4525523420772</v>
       </c>
     </row>
     <row r="31">
@@ -6595,73 +6595,73 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.3067734020655</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C31" t="n">
-        <v>42.3067734020655</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D31" t="n">
-        <v>42.3067734020655</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E31" t="n">
-        <v>42.3067734020655</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F31" t="n">
-        <v>42.3067734020655</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G31" t="n">
-        <v>86.64290924294551</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H31" t="n">
-        <v>86.64290924294551</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I31" t="n">
-        <v>86.64290924294551</v>
+        <v>84.06216404661765</v>
       </c>
       <c r="J31" t="n">
-        <v>86.64290924294551</v>
+        <v>84.06216404661765</v>
       </c>
       <c r="K31" t="n">
-        <v>86.64290924294551</v>
+        <v>84.06216404661765</v>
       </c>
       <c r="L31" t="n">
-        <v>266.1625141760094</v>
+        <v>263.5817689796816</v>
       </c>
       <c r="M31" t="n">
-        <v>266.1625141760094</v>
+        <v>263.5817689796816</v>
       </c>
       <c r="N31" t="n">
-        <v>266.1625141760094</v>
+        <v>263.5817689796816</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1625141760094</v>
+        <v>263.5817689796816</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1625141760094</v>
+        <v>263.5817689796816</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760094</v>
+        <v>263.5817689796816</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909793</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239874</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032151</v>
+        <v>157.675738203215</v>
       </c>
       <c r="V31" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259939</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737341</v>
+        <v>48.13006019737335</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389708</v>
+        <v>39.61015627389705</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91669941514207</v>
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510277</v>
+        <v>1014.789988510279</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806677</v>
+        <v>877.5242945806694</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601</v>
+        <v>752.8175276601016</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734627</v>
+        <v>594.0635360734643</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581614</v>
+        <v>403.2687994581624</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977749</v>
+        <v>196.6771705977753</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465899</v>
+        <v>62.62773805465896</v>
       </c>
       <c r="I32" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
         <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>357.4097545154539</v>
+        <v>377.3257080180681</v>
       </c>
       <c r="L32" t="n">
-        <v>616.2999327831707</v>
+        <v>616.2999327831712</v>
       </c>
       <c r="M32" t="n">
-        <v>909.3311676570746</v>
+        <v>909.3311676570751</v>
       </c>
       <c r="N32" t="n">
         <v>1196.828396579724</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059348</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
         <v>1640.446650218727</v>
@@ -6722,28 +6722,28 @@
         <v>1763.801366338636</v>
       </c>
       <c r="R32" t="n">
-        <v>1783.037972197049</v>
+        <v>1783.03797219705</v>
       </c>
       <c r="S32" t="n">
         <v>1769.700058896461</v>
       </c>
       <c r="T32" t="n">
-        <v>1761.464280099537</v>
+        <v>1761.464280099538</v>
       </c>
       <c r="U32" t="n">
-        <v>1725.264198178542</v>
+        <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.62043735199</v>
+        <v>1617.620437351991</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.788110650069</v>
+        <v>1492.78811065007</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.848460242149</v>
+        <v>1345.84846024215</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163781</v>
+        <v>1176.178655163782</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>238.9130572808394</v>
+        <v>324.7766026992455</v>
       </c>
       <c r="C33" t="n">
-        <v>238.9130572808394</v>
+        <v>135.3643284322092</v>
       </c>
       <c r="D33" t="n">
-        <v>238.9130572808394</v>
+        <v>135.3643284322092</v>
       </c>
       <c r="E33" t="n">
-        <v>238.9130572808394</v>
+        <v>135.3643284322092</v>
       </c>
       <c r="F33" t="n">
-        <v>238.9130572808394</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G33" t="n">
-        <v>88.66598205394359</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H33" t="n">
-        <v>88.66598205394359</v>
+        <v>35.660759443941</v>
       </c>
       <c r="I33" t="n">
-        <v>88.66598205394359</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J33" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="K33" t="n">
-        <v>73.6240854598214</v>
+        <v>73.62408545982137</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9570045881956</v>
+        <v>190.9570045881955</v>
       </c>
       <c r="M33" t="n">
-        <v>372.633651192201</v>
+        <v>372.6336511922009</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029603</v>
+        <v>577.5386276029601</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219948</v>
+        <v>709.2395672219945</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="R33" t="n">
-        <v>656.7840736224406</v>
+        <v>656.7840736224402</v>
       </c>
       <c r="S33" t="n">
-        <v>656.7840736224406</v>
+        <v>656.7840736224402</v>
       </c>
       <c r="T33" t="n">
-        <v>656.1189592642335</v>
+        <v>656.1189592642331</v>
       </c>
       <c r="U33" t="n">
-        <v>632.9718793591593</v>
+        <v>416.4946466411133</v>
       </c>
       <c r="V33" t="n">
-        <v>520.5058485624327</v>
+        <v>389.8921612627931</v>
       </c>
       <c r="W33" t="n">
-        <v>251.107279292724</v>
+        <v>336.9708247111301</v>
       </c>
       <c r="X33" t="n">
-        <v>248.076517627466</v>
+        <v>333.9400630458721</v>
       </c>
       <c r="Y33" t="n">
-        <v>238.9130572808394</v>
+        <v>324.7766026992455</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H34" t="n">
-        <v>35.66075944394099</v>
+        <v>79.71504249541746</v>
       </c>
       <c r="I34" t="n">
-        <v>35.66075944394099</v>
+        <v>79.71504249541746</v>
       </c>
       <c r="J34" t="n">
-        <v>128.7928837238177</v>
+        <v>79.71504249541746</v>
       </c>
       <c r="K34" t="n">
-        <v>260.0540801966771</v>
+        <v>79.71504249541746</v>
       </c>
       <c r="L34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.054080196677</v>
       </c>
       <c r="M34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.054080196677</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.054080196677</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.054080196677</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.054080196677</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.054080196677</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.054080196677</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842374</v>
+        <v>238.7151064842373</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898356</v>
+        <v>229.1705629898355</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416534</v>
+        <v>154.0755159416533</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370224</v>
+        <v>122.9678848370223</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099199</v>
+        <v>46.20197908099194</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010583</v>
+        <v>38.51814573010581</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.660759443941</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>20.83686474960229</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998706</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J35" t="n">
-        <v>244.900543598745</v>
+        <v>32.26864931447406</v>
       </c>
       <c r="K35" t="n">
-        <v>255.9042158981345</v>
+        <v>32.26864931447406</v>
       </c>
       <c r="L35" t="n">
-        <v>302.6250583788947</v>
+        <v>78.98949179523419</v>
       </c>
       <c r="M35" t="n">
-        <v>560.4812596552231</v>
+        <v>336.8456930715626</v>
       </c>
       <c r="N35" t="n">
-        <v>635.8091527909155</v>
+        <v>412.1735862072549</v>
       </c>
       <c r="O35" t="n">
         <v>670.0297874835833</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>544.5924591341924</v>
+        <v>94.8718589105473</v>
       </c>
       <c r="C36" t="n">
-        <v>355.1801848671561</v>
+        <v>94.8718589105473</v>
       </c>
       <c r="D36" t="n">
-        <v>194.4000686281878</v>
+        <v>94.8718589105473</v>
       </c>
       <c r="E36" t="n">
         <v>20.83686474960229</v>
@@ -7017,49 +7017,49 @@
         <v>20.83686474960229</v>
       </c>
       <c r="K36" t="n">
-        <v>58.8001907654827</v>
+        <v>58.80019076548267</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938568</v>
       </c>
       <c r="M36" t="n">
-        <v>357.8097564978623</v>
+        <v>357.8097564978622</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086215</v>
+        <v>562.7147329086214</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276559</v>
+        <v>694.4156725276558</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857559</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.0407857857559</v>
+        <v>771.1019414684213</v>
       </c>
       <c r="R36" t="n">
-        <v>723.1283120611274</v>
+        <v>771.1019414684213</v>
       </c>
       <c r="S36" t="n">
-        <v>723.1283120611274</v>
+        <v>577.5758896300331</v>
       </c>
       <c r="T36" t="n">
-        <v>723.1283120611274</v>
+        <v>577.5758896300331</v>
       </c>
       <c r="U36" t="n">
-        <v>723.1283120611274</v>
+        <v>337.9515770069132</v>
       </c>
       <c r="V36" t="n">
-        <v>723.1283120611274</v>
+        <v>94.8718589105473</v>
       </c>
       <c r="W36" t="n">
-        <v>723.1283120611274</v>
+        <v>94.8718589105473</v>
       </c>
       <c r="X36" t="n">
-        <v>723.1283120611274</v>
+        <v>94.8718589105473</v>
       </c>
       <c r="Y36" t="n">
-        <v>723.1283120611274</v>
+        <v>94.8718589105473</v>
       </c>
     </row>
     <row r="37">
@@ -7084,19 +7084,19 @@
         <v>20.83686474960229</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="L37" t="n">
         <v>56.03780166411086</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361098</v>
+        <v>623.0190675361093</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513521</v>
+        <v>544.0833815513516</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756363</v>
+        <v>477.7066225756358</v>
       </c>
       <c r="E38" t="n">
-        <v>377.282638933851</v>
+        <v>377.2826389338505</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634017</v>
+        <v>244.8179102634012</v>
       </c>
       <c r="G38" t="n">
         <v>96.55628934786677</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57576979998706</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="J38" t="n">
-        <v>178.5009941413872</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="K38" t="n">
-        <v>178.5009941413872</v>
+        <v>278.6930660259305</v>
       </c>
       <c r="L38" t="n">
-        <v>225.2218366221474</v>
+        <v>325.4139085066906</v>
       </c>
       <c r="M38" t="n">
-        <v>306.0837357090948</v>
+        <v>406.2758075936379</v>
       </c>
       <c r="N38" t="n">
-        <v>381.4116288447872</v>
+        <v>664.1320088699662</v>
       </c>
       <c r="O38" t="n">
-        <v>415.6322635374551</v>
+        <v>698.3526435626339</v>
       </c>
       <c r="P38" t="n">
-        <v>670.0297874835833</v>
+        <v>698.3526435626339</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5537443902416</v>
+        <v>872.2432848862239</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9595910354045</v>
+        <v>948.6491315313868</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0563429962468</v>
+        <v>992.7458834922292</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.843237480115</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984142</v>
+        <v>992.5294845984138</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413453</v>
+        <v>926.0271658413449</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782772</v>
+        <v>837.4175233782768</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447609</v>
+        <v>726.0777262447605</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>538.4164731626361</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="C39" t="n">
-        <v>538.4164731626361</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="D39" t="n">
-        <v>538.4164731626361</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="E39" t="n">
-        <v>538.4164731626361</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="F39" t="n">
-        <v>377.9887568798802</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="G39" t="n">
-        <v>227.7416816529844</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="H39" t="n">
-        <v>129.2847539859532</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="K39" t="n">
-        <v>58.8001907654827</v>
+        <v>58.80019076548265</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938568</v>
       </c>
       <c r="M39" t="n">
-        <v>357.8097564978623</v>
+        <v>357.8097564978622</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086215</v>
+        <v>562.7147329086214</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276559</v>
+        <v>694.4156725276558</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857559</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857559</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="R39" t="n">
-        <v>778.0407857857559</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="S39" t="n">
-        <v>778.0407857857559</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="T39" t="n">
-        <v>778.0407857857559</v>
+        <v>560.8984387095029</v>
       </c>
       <c r="U39" t="n">
-        <v>538.4164731626361</v>
+        <v>321.274126086383</v>
       </c>
       <c r="V39" t="n">
-        <v>538.4164731626361</v>
+        <v>321.274126086383</v>
       </c>
       <c r="W39" t="n">
-        <v>538.4164731626361</v>
+        <v>58.18239944999056</v>
       </c>
       <c r="X39" t="n">
-        <v>538.4164731626361</v>
+        <v>58.18239944999056</v>
       </c>
       <c r="Y39" t="n">
-        <v>538.4164731626361</v>
+        <v>58.18239944999056</v>
       </c>
     </row>
     <row r="40">
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="F40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="G40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="Q40" t="n">
         <v>56.03780166411086</v>
@@ -7363,19 +7363,19 @@
         <v>56.03780166411086</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078067</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078067</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.83686474960228</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753173</v>
+        <v>818.4263542753158</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564255</v>
+        <v>708.127638956424</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465758</v>
+        <v>610.3878506465744</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706563</v>
+        <v>478.6008376706552</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660731</v>
+        <v>314.7730796660722</v>
       </c>
       <c r="G41" t="n">
-        <v>135.148429416404</v>
+        <v>135.1484294164038</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323785</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5915955308619</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="L41" t="n">
-        <v>523.4617675668877</v>
+        <v>475.9723582364601</v>
       </c>
       <c r="M41" t="n">
-        <v>604.3236666538351</v>
+        <v>795.4339288467287</v>
       </c>
       <c r="N41" t="n">
-        <v>918.2512313128487</v>
+        <v>870.7618219824211</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4718660055165</v>
+        <v>965.829712915972</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.13048490126</v>
+        <v>1189.488331811715</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757533</v>
+        <v>1339.273383667989</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.582478352311</v>
+        <v>1384.940325262767</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262769</v>
+        <v>1384.940325262767</v>
       </c>
       <c r="T41" t="n">
-        <v>1403.298774200269</v>
+        <v>1403.298774200267</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889993</v>
+        <v>1394.065670889991</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.388888674158</v>
+        <v>1313.388888674156</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.523540582955</v>
+        <v>1215.523540582953</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.550868785753</v>
+        <v>1095.550868785751</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181024</v>
+        <v>952.848042318101</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>504.9115464234684</v>
+        <v>217.4782497510416</v>
       </c>
       <c r="C42" t="n">
-        <v>315.4992721564321</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="D42" t="n">
-        <v>315.4992721564321</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="E42" t="n">
-        <v>315.4992721564321</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="F42" t="n">
-        <v>155.0715558736762</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="G42" t="n">
-        <v>155.0715558736762</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988579</v>
+        <v>66.02930149988572</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3622206282599</v>
+        <v>183.3622206282598</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322654</v>
+        <v>365.0388672322653</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9438436430246</v>
+        <v>569.9438436430245</v>
       </c>
       <c r="O42" t="n">
-        <v>701.644783262059</v>
+        <v>701.6447832620589</v>
       </c>
       <c r="P42" t="n">
-        <v>785.269896520159</v>
+        <v>785.2698965201588</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.269896520159</v>
+        <v>778.3310522028244</v>
       </c>
       <c r="R42" t="n">
-        <v>649.1892896625048</v>
+        <v>778.3310522028244</v>
       </c>
       <c r="S42" t="n">
-        <v>649.1892896625048</v>
+        <v>778.3310522028244</v>
       </c>
       <c r="T42" t="n">
-        <v>530.8659043644135</v>
+        <v>778.3310522028244</v>
       </c>
       <c r="U42" t="n">
-        <v>530.8659043644135</v>
+        <v>778.3310522028244</v>
       </c>
       <c r="V42" t="n">
-        <v>530.8659043644135</v>
+        <v>535.2513341064584</v>
       </c>
       <c r="W42" t="n">
-        <v>504.9115464234684</v>
+        <v>509.2969761655135</v>
       </c>
       <c r="X42" t="n">
-        <v>504.9115464234684</v>
+        <v>289.7889817822098</v>
       </c>
       <c r="Y42" t="n">
-        <v>504.9115464234684</v>
+        <v>289.7889817822098</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="C43" t="n">
-        <v>54.73839042465934</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="D43" t="n">
-        <v>54.73839042465934</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="E43" t="n">
-        <v>54.73839042465934</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="F43" t="n">
-        <v>54.73839042465934</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="G43" t="n">
-        <v>54.73839042465934</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="H43" t="n">
-        <v>54.73839042465934</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1336235606952</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J43" t="n">
-        <v>130.1336235606952</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="K43" t="n">
-        <v>130.1336235606952</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1336235606952</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1336235606952</v>
+        <v>130.1336235606949</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1336235606952</v>
+        <v>130.1336235606949</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1336235606952</v>
+        <v>130.1336235606949</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1336235606952</v>
+        <v>130.1336235606949</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1336235606952</v>
+        <v>130.1336235606949</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1336235606952</v>
+        <v>130.1336235606949</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1336235606952</v>
+        <v>130.1336235606949</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1336235606952</v>
+        <v>130.1336235606949</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323091</v>
+        <v>82.00555512323069</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931785</v>
+        <v>77.86490262931773</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753184</v>
+        <v>818.4263542753166</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564266</v>
+        <v>708.1276389564248</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465767</v>
+        <v>610.3878506465749</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706569</v>
+        <v>478.6008376706551</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660732</v>
+        <v>314.7730796660717</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J44" t="n">
-        <v>190.6518442323786</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="K44" t="n">
-        <v>236.5580478456857</v>
+        <v>260.0057267824886</v>
       </c>
       <c r="L44" t="n">
-        <v>283.2788903264459</v>
+        <v>306.7265692632487</v>
       </c>
       <c r="M44" t="n">
-        <v>602.7404609367145</v>
+        <v>626.1881398735172</v>
       </c>
       <c r="N44" t="n">
-        <v>916.6680255957282</v>
+        <v>940.1157045325308</v>
       </c>
       <c r="O44" t="n">
-        <v>1189.488331811717</v>
+        <v>1102.256917861788</v>
       </c>
       <c r="P44" t="n">
-        <v>1189.488331811717</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="Q44" t="n">
-        <v>1339.273383667991</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R44" t="n">
-        <v>1384.940325262769</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.940325262769</v>
+        <v>1384.940325262767</v>
       </c>
       <c r="T44" t="n">
-        <v>1403.298774200269</v>
+        <v>1403.298774200267</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.065670889993</v>
+        <v>1394.065670889991</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674159</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582956</v>
+        <v>1215.523540582954</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785754</v>
+        <v>1095.550868785752</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181036</v>
+        <v>952.8480423181018</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>188.4936917667613</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="C45" t="n">
-        <v>188.4936917667613</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="D45" t="n">
-        <v>188.4936917667613</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="E45" t="n">
-        <v>188.4936917667613</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988579</v>
+        <v>66.02930149988572</v>
       </c>
       <c r="L45" t="n">
-        <v>183.3622206282599</v>
+        <v>183.3622206282598</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322654</v>
+        <v>365.0388672322653</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9438436430246</v>
+        <v>569.9438436430245</v>
       </c>
       <c r="O45" t="n">
-        <v>701.644783262059</v>
+        <v>701.6447832620589</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201589</v>
+        <v>785.2698965201588</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201589</v>
+        <v>785.2698965201588</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201589</v>
+        <v>649.1892896625046</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201589</v>
+        <v>455.6632378241164</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2698965201589</v>
+        <v>238.5208907478636</v>
       </c>
       <c r="U45" t="n">
-        <v>785.2698965201589</v>
+        <v>54.02033342495038</v>
       </c>
       <c r="V45" t="n">
-        <v>542.190178423793</v>
+        <v>54.02033342495038</v>
       </c>
       <c r="W45" t="n">
-        <v>272.7916091540843</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="X45" t="n">
-        <v>188.4936917667613</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="Y45" t="n">
-        <v>188.4936917667613</v>
+        <v>28.06597548400535</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="J46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="R46" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="T46" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323085</v>
+        <v>82.00555512323081</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931783</v>
+        <v>77.86490262931778</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400535</v>
       </c>
     </row>
   </sheetData>
@@ -8535,19 +8535,19 @@
         <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>172.23559297146</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
         <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>163.4361383816801</v>
+        <v>163.3068757699624</v>
       </c>
       <c r="O9" t="n">
-        <v>177.037405250518</v>
+        <v>177.1666678622357</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>166.6480266854964</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9015,10 +9015,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O15" t="n">
-        <v>255.2227828913208</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23261,22 +23261,22 @@
         <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891594</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085683</v>
+        <v>193.3306479085684</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869456</v>
+        <v>36.5530521676985</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033353</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240824</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>8.448532327702978</v>
+        <v>16.73328122929903</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.36873040538038</v>
       </c>
       <c r="T11" t="n">
-        <v>44.3176172467514</v>
+        <v>44.31761724675145</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>13.09160030391644</v>
       </c>
       <c r="W11" t="n">
-        <v>159.748199672699</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.137303265382</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="12">
@@ -23504,16 +23504,16 @@
         <v>193.3306479085683</v>
       </c>
       <c r="F14" t="n">
-        <v>36.55305216769847</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G14" t="n">
-        <v>62.45287783701659</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240817</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>49.36873040538032</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675138</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>29.82488153321514</v>
       </c>
       <c r="W14" t="n">
-        <v>159.748199672699</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.137303265382</v>
+        <v>15.63936994613485</v>
       </c>
     </row>
     <row r="15">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.318590178329032e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>800352.075149794</v>
+        <v>800352.0751497938</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>800352.0751497938</v>
+        <v>800352.0751497939</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>924335.1952591954</v>
+        <v>924335.1952591956</v>
       </c>
     </row>
     <row r="8">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>661448.9963823445</v>
+        <v>661448.9963823447</v>
       </c>
       <c r="C2" t="n">
         <v>661448.9963823446</v>
       </c>
       <c r="D2" t="n">
-        <v>661830.9867893624</v>
+        <v>661830.986789362</v>
       </c>
       <c r="E2" t="n">
-        <v>569801.5715618497</v>
+        <v>569801.5715618498</v>
       </c>
       <c r="F2" t="n">
-        <v>569801.57156185</v>
+        <v>569801.5715618498</v>
       </c>
       <c r="G2" t="n">
         <v>662788.9116439017</v>
       </c>
       <c r="H2" t="n">
-        <v>662788.9116439018</v>
+        <v>662788.911643902</v>
       </c>
       <c r="I2" t="n">
-        <v>662788.9116439018</v>
+        <v>662788.9116439022</v>
       </c>
       <c r="J2" t="n">
         <v>662788.9116439014</v>
       </c>
       <c r="K2" t="n">
-        <v>662788.9116439017</v>
+        <v>662788.9116439016</v>
       </c>
       <c r="L2" t="n">
         <v>662788.9116439021</v>
@@ -26347,13 +26347,13 @@
         <v>662788.9116439017</v>
       </c>
       <c r="N2" t="n">
-        <v>662788.9116439018</v>
+        <v>662788.911643902</v>
       </c>
       <c r="O2" t="n">
+        <v>662788.911643902</v>
+      </c>
+      <c r="P2" t="n">
         <v>662788.9116439023</v>
-      </c>
-      <c r="P2" t="n">
-        <v>662788.9116439022</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
         <v>95439.52541913325</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068794</v>
+        <v>143496.2830068793</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>96101.69331262466</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.3662923228</v>
+        <v>46197.36629232277</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924381</v>
+        <v>72254.91485924383</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>419657.1292804553</v>
       </c>
       <c r="D4" t="n">
-        <v>419547.2774058439</v>
+        <v>419547.2774058438</v>
       </c>
       <c r="E4" t="n">
         <v>307823.2566717783</v>
       </c>
       <c r="F4" t="n">
-        <v>307823.2566717784</v>
+        <v>307823.2566717783</v>
       </c>
       <c r="G4" t="n">
         <v>378431.1247150002</v>
@@ -26445,7 +26445,7 @@
         <v>379258.4930688672</v>
       </c>
       <c r="L4" t="n">
-        <v>379243.7031014885</v>
+        <v>379243.7031014886</v>
       </c>
       <c r="M4" t="n">
         <v>378433.7657281701</v>
@@ -26454,10 +26454,10 @@
         <v>378433.7657281701</v>
       </c>
       <c r="O4" t="n">
-        <v>378820.8283918878</v>
+        <v>378820.8283918877</v>
       </c>
       <c r="P4" t="n">
-        <v>378820.8283918878</v>
+        <v>378820.8283918877</v>
       </c>
     </row>
     <row r="5">
@@ -26494,7 +26494,7 @@
         <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="L5" t="n">
         <v>47324.7475828481</v>
@@ -26503,13 +26503,13 @@
         <v>40913.2955986873</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868729</v>
       </c>
       <c r="O5" t="n">
-        <v>43797.12782887324</v>
+        <v>43797.12782887323</v>
       </c>
       <c r="P5" t="n">
-        <v>43797.12782887324</v>
+        <v>43797.12782887321</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208164.2671018892</v>
+        <v>208159.8007176843</v>
       </c>
       <c r="C6" t="n">
-        <v>208164.2671018893</v>
+        <v>208159.8007176841</v>
       </c>
       <c r="D6" t="n">
-        <v>207467.8120897282</v>
+        <v>207464.6190068795</v>
       </c>
       <c r="E6" t="n">
-        <v>-45790.75722639066</v>
+        <v>-46100.71502666394</v>
       </c>
       <c r="F6" t="n">
-        <v>233335.3579523239</v>
+        <v>233025.4001520502</v>
       </c>
       <c r="G6" t="n">
         <v>150245.9227439441</v>
       </c>
       <c r="H6" t="n">
-        <v>245685.4481630775</v>
+        <v>245685.4481630776</v>
       </c>
       <c r="I6" t="n">
-        <v>245685.4481630775</v>
+        <v>245685.4481630778</v>
       </c>
       <c r="J6" t="n">
-        <v>92584.45834799123</v>
+        <v>92584.45834799128</v>
       </c>
       <c r="K6" t="n">
-        <v>236080.741354871</v>
+        <v>236080.7413548708</v>
       </c>
       <c r="L6" t="n">
         <v>140118.7676469407</v>
       </c>
       <c r="M6" t="n">
-        <v>197244.4840247216</v>
+        <v>197244.4840247215</v>
       </c>
       <c r="N6" t="n">
-        <v>243441.8503170445</v>
+        <v>243441.8503170446</v>
       </c>
       <c r="O6" t="n">
-        <v>167916.0405638975</v>
+        <v>167916.0405638972</v>
       </c>
       <c r="P6" t="n">
-        <v>240170.9554231412</v>
+        <v>240170.9554231414</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
         <v>178.1482641530679</v>
@@ -26713,7 +26713,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="L2" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M2" t="n">
         <v>272.0591682562687</v>
@@ -26722,7 +26722,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="O2" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="P2" t="n">
         <v>241.009769215476</v>
@@ -26765,19 +26765,19 @@
         <v>101.1713840758395</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="M3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
     </row>
     <row r="4">
@@ -26814,22 +26814,22 @@
         <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492623</v>
+        <v>445.7594930492624</v>
       </c>
       <c r="M4" t="n">
         <v>260.4608093700286</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700285</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8246935500673</v>
+        <v>350.8246935500669</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8246935500673</v>
+        <v>350.8246935500669</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>119.2994067739166</v>
@@ -26938,13 +26938,13 @@
         <v>120.1271166407808</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540349</v>
+        <v>57.74670786540347</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929166</v>
+        <v>63.13594470929178</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003867</v>
+        <v>90.36388418003833</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>119.2994067739166</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>374.0872403778333</v>
+        <v>374.2171558310243</v>
       </c>
       <c r="C8" t="n">
         <v>350.2054973811788</v>
@@ -27919,7 +27919,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y8" t="n">
-        <v>382.4154828716409</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="9">
@@ -27935,10 +27935,10 @@
         <v>184.3189018843524</v>
       </c>
       <c r="D9" t="n">
-        <v>155.9730654365651</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
-        <v>171.8275718397997</v>
+        <v>168.6283221997862</v>
       </c>
       <c r="F9" t="n">
         <v>158.8234391199283</v>
@@ -27977,16 +27977,16 @@
         <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>145.4130537153763</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.4336248079265</v>
       </c>
       <c r="T9" t="n">
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>234.0431365621689</v>
+        <v>234.4244871192585</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K11" t="n">
-        <v>160.7168484597792</v>
+        <v>6.727192146300958</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>21.80914932891052</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P11" t="n">
-        <v>178.1482641530679</v>
+        <v>15.09197235108875</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="12">
@@ -28166,13 +28166,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>92.66477309051149</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530679</v>
+        <v>26.4729902862431</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V12" t="n">
-        <v>66.78139716189293</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W12" t="n">
-        <v>78.20665025776444</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D13" t="n">
-        <v>178.1482641530679</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H13" t="n">
         <v>165.8243976546666</v>
       </c>
       <c r="I13" t="n">
-        <v>171.0689769149872</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K13" t="n">
         <v>67.02998013918997</v>
       </c>
       <c r="L13" t="n">
-        <v>32.15181624817887</v>
+        <v>63.05838839367085</v>
       </c>
       <c r="M13" t="n">
-        <v>178.1482641530679</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N13" t="n">
-        <v>178.1482641530679</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O13" t="n">
-        <v>37.47888399777679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="P13" t="n">
-        <v>58.47859890024887</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="14">
@@ -28348,16 +28348,16 @@
         <v>178.1482641530679</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530679</v>
+        <v>76.78161896459405</v>
       </c>
       <c r="K14" t="n">
-        <v>6.785212809893452</v>
+        <v>89.76913774117742</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28369,7 +28369,7 @@
         <v>178.1482641530679</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530679</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R14" t="n">
         <v>178.1482641530679</v>
@@ -28406,13 +28406,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>109.8523739861656</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28457,7 +28457,7 @@
         <v>178.1482641530679</v>
       </c>
       <c r="T15" t="n">
-        <v>85.75734623838221</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U15" t="n">
         <v>178.1482641530679</v>
@@ -28466,10 +28466,10 @@
         <v>178.1482641530679</v>
       </c>
       <c r="W15" t="n">
-        <v>78.20665025776444</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530679</v>
+        <v>28.81498112022342</v>
       </c>
       <c r="Y15" t="n">
         <v>178.1482641530679</v>
@@ -28482,13 +28482,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C16" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="D16" t="n">
-        <v>178.1482641530679</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>178.1482641530679</v>
@@ -28497,7 +28497,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>178.1482641530679</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
         <v>178.1482641530679</v>
@@ -28506,28 +28506,28 @@
         <v>178.1482641530679</v>
       </c>
       <c r="J16" t="n">
-        <v>120.239607582909</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K16" t="n">
         <v>67.02998013918997</v>
       </c>
       <c r="L16" t="n">
-        <v>32.15181624817887</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="M16" t="n">
-        <v>117.468175794917</v>
+        <v>87.1413744569218</v>
       </c>
       <c r="N16" t="n">
+        <v>16.52015736928134</v>
+      </c>
+      <c r="O16" t="n">
+        <v>37.47888399777679</v>
+      </c>
+      <c r="P16" t="n">
         <v>178.1482641530679</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>178.1482641530679</v>
-      </c>
-      <c r="P16" t="n">
-        <v>58.47859890024887</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>127.2169859636892</v>
       </c>
       <c r="R16" t="n">
         <v>178.1482641530679</v>
@@ -28582,13 +28582,13 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4476709269844</v>
+        <v>258.4538706224554</v>
       </c>
       <c r="J17" t="n">
-        <v>232.417116798009</v>
+        <v>265.2795522838413</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300958</v>
+        <v>6.727192146300951</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28597,28 +28597,28 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108875</v>
+        <v>15.09197235108874</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.71173703742195</v>
+        <v>278.2096703566692</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4476709269844</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4476709269844</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V17" t="n">
         <v>297.4476709269844</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28652,7 +28652,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>148.7446044746268</v>
@@ -28664,7 +28664,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28691,25 +28691,25 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757104</v>
       </c>
       <c r="T18" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764141</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615503</v>
       </c>
       <c r="W18" t="n">
-        <v>148.2727912459009</v>
+        <v>266.3684989035082</v>
       </c>
       <c r="X18" t="n">
-        <v>28.81498112022345</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.88635281477846</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28743,7 +28743,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J19" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K19" t="n">
         <v>67.02998013918997</v>
@@ -28761,7 +28761,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28819,22 +28819,22 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4476709269844</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J20" t="n">
         <v>76.78161896459405</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300958</v>
+        <v>195.2251254655481</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28843,16 +28843,16 @@
         <v>15.09197235108875</v>
       </c>
       <c r="Q20" t="n">
-        <v>245.3472348708369</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4476709269844</v>
+        <v>246.7072033014229</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4476709269844</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U20" t="n">
         <v>297.4476709269844</v>
@@ -28877,22 +28877,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>127.7911722448217</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>48.63440754883784</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
         <v>125.7355245857741</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -28934,7 +28934,7 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764143</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -29056,43 +29056,43 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4476709269844</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J23" t="n">
-        <v>265.2795522838412</v>
+        <v>76.78161896459405</v>
       </c>
       <c r="K23" t="n">
         <v>6.727192146300958</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>13.73243939619044</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108875</v>
+        <v>203.589905670336</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2096703566691</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R23" t="n">
-        <v>268.2968974519413</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4658813998192</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269844</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>25.56181165241139</v>
+        <v>167.1510683156501</v>
       </c>
       <c r="T24" t="n">
-        <v>26.47299028624312</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615503</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.81498112022345</v>
+        <v>28.81498112022339</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.88635281477846</v>
+        <v>34.88635281477841</v>
       </c>
     </row>
     <row r="25">
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>171.889555838324</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -29360,13 +29360,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>117.2509905609196</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
         <v>125.7355245857741</v>
@@ -29396,22 +29396,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>213.484750524001</v>
-      </c>
-      <c r="U27" t="n">
-        <v>213.484750524001</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>213.484750524001</v>
@@ -29420,7 +29420,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="28">
@@ -29430,10 +29430,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>201.613637960039</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>213.484750524001</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>213.484750524001</v>
@@ -29454,7 +29454,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
-        <v>213.484750524001</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
         <v>67.02998013918997</v>
@@ -29469,16 +29469,16 @@
         <v>16.52015736928134</v>
       </c>
       <c r="O28" t="n">
-        <v>37.47888399777679</v>
+        <v>105.4257598572892</v>
       </c>
       <c r="P28" t="n">
         <v>58.47859890024887</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.2169859636892</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R28" t="n">
-        <v>203.4299611556341</v>
+        <v>213.484750524001</v>
       </c>
       <c r="S28" t="n">
         <v>213.484750524001</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29597,19 +29597,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J30" t="n">
         <v>52.47517038390259</v>
@@ -29636,13 +29636,13 @@
         <v>6.869455874161034</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890777</v>
+        <v>108.1491094332365</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>169.9530895008345</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>213.484750524001</v>
@@ -29654,7 +29654,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="X30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>213.484750524001</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>184.0715408537797</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29682,13 +29682,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>213.484750524001</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H31" t="n">
         <v>165.8243976546666</v>
       </c>
       <c r="I31" t="n">
-        <v>164.852968067965</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J31" t="n">
         <v>120.239607582909</v>
@@ -29715,7 +29715,7 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R31" t="n">
-        <v>203.4299611556341</v>
+        <v>206.036774485258</v>
       </c>
       <c r="S31" t="n">
         <v>213.484750524001</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="K32" t="n">
-        <v>194.1953356407499</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407505</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="N32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29837,10 +29837,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>60.11690582154279</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H33" t="n">
         <v>125.7355245857741</v>
@@ -29849,7 +29849,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161009</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -29879,22 +29879,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>129.3075504266429</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="34">
@@ -29922,31 +29922,31 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H34" t="n">
-        <v>165.8243976546666</v>
+        <v>210.3236734642388</v>
       </c>
       <c r="I34" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
-        <v>214.3124603908652</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
-        <v>199.6170472834924</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15181624817885</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O34" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P34" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2169859636892</v>
@@ -29955,25 +29955,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="35">
@@ -30004,13 +30004,13 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0591682562687</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0591682562687</v>
+        <v>88.32887610082815</v>
       </c>
       <c r="K35" t="n">
-        <v>17.84201265073475</v>
+        <v>6.727192146300958</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30022,10 +30022,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>225.8945117006673</v>
       </c>
       <c r="P35" t="n">
-        <v>15.0919723510887</v>
+        <v>15.09197235108875</v>
       </c>
       <c r="Q35" t="n">
         <v>272.0591682562687</v>
@@ -30062,16 +30062,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>98.53292762046411</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30086,7 +30086,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,22 +30107,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.3564518016954</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -30156,7 +30156,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>204.2572768609995</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H37" t="n">
         <v>165.8243976546666</v>
@@ -30165,25 +30165,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J37" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K37" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817885</v>
+        <v>67.70831818202592</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O37" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P37" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2169859636892</v>
@@ -30241,13 +30241,13 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0591682562687</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J38" t="n">
-        <v>204.9889162791396</v>
+        <v>76.78161896459405</v>
       </c>
       <c r="K38" t="n">
-        <v>6.727192146300908</v>
+        <v>267.1880015163295</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30256,16 +30256,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3720284248847</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0591682562687</v>
+        <v>15.09197235108875</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0591682562687</v>
+        <v>265.3588494854927</v>
       </c>
       <c r="R38" t="n">
         <v>272.0591682562687</v>
@@ -30277,7 +30277,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>139.7784150442814</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30311,19 +30311,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
-        <v>28.26316619541323</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,16 +30344,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161009</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7198007890776</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S39" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30362,7 +30362,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206983062</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30390,7 +30390,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>174.4833841522937</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>168.7007749271525</v>
@@ -30402,28 +30402,28 @@
         <v>164.852968067965</v>
       </c>
       <c r="J40" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K40" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M40" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O40" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P40" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.2169859636892</v>
+        <v>162.7734878975363</v>
       </c>
       <c r="R40" t="n">
         <v>203.4299611556341</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="C41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="D41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="E41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="F41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="G41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="H41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="I41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="K41" t="n">
-        <v>241.009769215476</v>
+        <v>6.727192146300958</v>
       </c>
       <c r="L41" t="n">
-        <v>54.69629248006633</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="N41" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>61.46187499079102</v>
       </c>
       <c r="P41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="R41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="S41" t="n">
-        <v>241.009769215476</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="U41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="V41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="W41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>105.1628696868092</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30548,19 +30548,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,28 +30581,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S42" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>97.83077216037984</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30618,7 +30618,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>193.3990142453602</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
@@ -30636,28 +30636,28 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I43" t="n">
-        <v>241.009769215476</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889342</v>
+        <v>128.3154998197919</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O43" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P43" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2169859636892</v>
@@ -30672,13 +30672,13 @@
         <v>223.761558450323</v>
       </c>
       <c r="U43" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="V43" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="W43" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30718,10 +30718,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
+        <v>76.78161896459405</v>
+      </c>
+      <c r="K44" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="K44" t="n">
-        <v>53.09709478600512</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30733,19 +30733,19 @@
         <v>241.009769215476</v>
       </c>
       <c r="O44" t="n">
+        <v>129.2127056935249</v>
+      </c>
+      <c r="P44" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="P44" t="n">
-        <v>15.09197235108871</v>
-      </c>
       <c r="Q44" t="n">
-        <v>241.009769215476</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="S44" t="n">
-        <v>227.5169945584482</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T44" t="n">
         <v>241.009769215476</v>
@@ -30785,7 +30785,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7446044746268</v>
@@ -30797,7 +30797,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390258</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161012</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>54.5725177472045</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
-        <v>133.8579762260208</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30876,28 +30876,28 @@
         <v>164.852968067965</v>
       </c>
       <c r="J46" t="n">
-        <v>223.3382420038076</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O46" t="n">
-        <v>37.47888399777677</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.2169859636892</v>
+        <v>230.3156203845879</v>
       </c>
       <c r="R46" t="n">
         <v>203.4299611556341</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H17" t="n">
         <v>4.165312310217852</v>
@@ -32236,16 +32236,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M17" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O17" t="n">
         <v>68.52759814556021</v>
@@ -32254,7 +32254,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R17" t="n">
         <v>25.54857067318172</v>
@@ -32266,7 +32266,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H18" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J18" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N18" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P18" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S18" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375088</v>
@@ -32397,10 +32397,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N19" t="n">
         <v>27.91832636309192</v>
@@ -32415,16 +32415,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I32" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M32" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P32" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H33" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I33" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862174</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R33" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S33" t="n">
-        <v>4.042083127935663</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H34" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L34" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I35" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M35" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P35" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H36" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I36" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862174</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R36" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S36" t="n">
-        <v>4.042083127935663</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H37" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L37" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I38" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M38" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P38" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H39" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I39" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862174</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R39" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S39" t="n">
-        <v>4.042083127935663</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H40" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L40" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I41" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M41" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P41" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H42" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I42" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862174</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R42" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935663</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H43" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L43" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L44" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032869</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521939</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H45" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729629</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862173</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R45" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935663</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J46" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P46" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35146,7 +35146,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -35215,7 +35215,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="O9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="O9" t="n">
-        <v>3.069987028295762</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>101.3666451884738</v>
       </c>
       <c r="K11" t="n">
-        <v>153.9896563134783</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258599</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M11" t="n">
         <v>81.67868594641141</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514381</v>
+        <v>97.89793027405433</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936138</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P11" t="n">
-        <v>163.0562918019791</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.4365271156459</v>
+        <v>88.43652711564584</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O12" t="n">
         <v>133.0312521404388</v>
@@ -35541,52 +35541,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.5313434880997079</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109551</v>
+        <v>11.69108318109545</v>
       </c>
       <c r="D13" t="n">
-        <v>32.96561390235715</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.47212294084287</v>
+        <v>36.47212294084281</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.22138193462115</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.447489225915332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>6.216008847022123</v>
+        <v>13.29529608510276</v>
       </c>
       <c r="J13" t="n">
-        <v>57.9086565701589</v>
+        <v>57.90865657015885</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>30.90657214549197</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9313987541744</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>161.6281067837865</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>140.669380155291</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>119.6696652528189</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937864</v>
+        <v>50.93127818937858</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05802066359249503</v>
+        <v>83.04194559487647</v>
       </c>
       <c r="L14" t="n">
         <v>47.19277018258599</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641141</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N14" t="n">
         <v>76.08878094514381</v>
@@ -35665,7 +35665,7 @@
         <v>163.0562918019791</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.4365271156459</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35778,13 +35778,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.5313434880997647</v>
       </c>
       <c r="C16" t="n">
         <v>11.69108318109551</v>
       </c>
       <c r="D16" t="n">
-        <v>32.96561390235715</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>36.47212294084287</v>
@@ -35793,7 +35793,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.447489225915389</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>12.32386649840128</v>
@@ -35802,28 +35802,28 @@
         <v>13.29529608510282</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>57.9086565701589</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>145.996447904889</v>
       </c>
       <c r="M16" t="n">
-        <v>92.25131039602353</v>
+        <v>61.92450905802836</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6281067837865</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.6693801552911</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.669665252819</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.93127818937864</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,22 +35878,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150837</v>
+        <v>17.44410140697934</v>
       </c>
       <c r="J17" t="n">
-        <v>155.635497833415</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258599</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M17" t="n">
         <v>81.67868594641141</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514381</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O17" t="n">
         <v>34.56629766936138</v>
@@ -35902,19 +35902,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.93067636853624</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,22 +36115,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43790171150837</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="L20" t="n">
         <v>47.19277018258599</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641141</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514381</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O20" t="n">
         <v>34.56629766936138</v>
@@ -36139,16 +36139,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>155.635497833415</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5661255446176</v>
+        <v>51.82565791905603</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93067636853624</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>47.29712943433466</v>
@@ -36209,7 +36209,7 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N21" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O21" t="n">
         <v>133.0312521404388</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43790171150837</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258599</v>
+        <v>60.92520957877643</v>
       </c>
       <c r="M23" t="n">
         <v>81.67868594641141</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514381</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O23" t="n">
         <v>34.56629766936138</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.41535206957442</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>118.5181001296708</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N24" t="n">
         <v>188.4979333192472</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583777001</v>
       </c>
       <c r="L26" t="n">
         <v>260.677520706587</v>
@@ -36604,19 +36604,19 @@
         <v>295.1634364704124</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691449</v>
       </c>
       <c r="O26" t="n">
         <v>248.0510481933624</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729123</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865791</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163416</v>
+        <v>18.60320514163421</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36726,13 +36726,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23.99671729507094</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.02756955202864</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>68.30210027329028</v>
+        <v>68.30210027329034</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.24514294109203</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36765,16 +36765,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>67.94687585951239</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.26776456031183</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.05478936836693</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P29" t="n">
         <v>198.3927781729122</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163412</v>
+        <v>18.60320514163415</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.454620188811548</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36978,13 +36978,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>44.78397559684849</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.63178245603595</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2.606813329623836</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>137.5308414262712</v>
       </c>
       <c r="K32" t="n">
-        <v>187.468143494449</v>
+        <v>207.5852682445643</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734513</v>
+        <v>241.3881058233365</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372767</v>
+        <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
         <v>290.4012413360091</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602267</v>
+        <v>248.8787580602266</v>
       </c>
       <c r="P32" t="n">
         <v>199.2204880397765</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L33" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M33" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O33" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37218,19 +37218,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>44.49927580957219</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>94.07285280795628</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>132.5870671443025</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>182.1606441426864</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37300,25 +37300,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04939904079269</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916747</v>
+        <v>11.54725713623411</v>
       </c>
       <c r="K35" t="n">
-        <v>11.11482050443385</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258605</v>
+        <v>47.19277018258599</v>
       </c>
       <c r="M35" t="n">
         <v>260.4608093700286</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514388</v>
+        <v>76.08878094514381</v>
       </c>
       <c r="O35" t="n">
-        <v>34.56629766936143</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,10 +37327,10 @@
         <v>182.3474312188468</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390191</v>
+        <v>77.17762287390188</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782055</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T35" t="n">
         <v>49.59328685644947</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L36" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M36" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O36" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37452,22 +37452,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079269</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>128.2072973145456</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>260.4608093700285</v>
       </c>
       <c r="L38" t="n">
-        <v>47.19277018258605</v>
+        <v>47.19277018258599</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641146</v>
+        <v>81.67868594641141</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514388</v>
+        <v>260.4608093700285</v>
       </c>
       <c r="O38" t="n">
-        <v>34.56629766936143</v>
+        <v>34.56629766936138</v>
       </c>
       <c r="P38" t="n">
-        <v>256.96719590518</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3474312188468</v>
+        <v>175.6471124480707</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390191</v>
+        <v>77.17762287390188</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782055</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T38" t="n">
         <v>49.59328685644947</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L39" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M39" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O39" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37686,40 +37686,40 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>164.228150250882</v>
       </c>
       <c r="K41" t="n">
-        <v>234.2825770691751</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>101.8890626626524</v>
+        <v>288.2025393980621</v>
       </c>
       <c r="M41" t="n">
-        <v>81.67868594641146</v>
+        <v>322.6884551618875</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0985501606199</v>
+        <v>76.08878094514381</v>
       </c>
       <c r="O41" t="n">
-        <v>34.56629766936143</v>
+        <v>96.02817266015239</v>
       </c>
       <c r="P41" t="n">
         <v>225.9177968643873</v>
@@ -37801,13 +37801,13 @@
         <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310917</v>
+        <v>46.12822383310923</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702781</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565673</v>
+        <v>18.54388781565682</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L42" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M42" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N42" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O42" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37914,7 +37914,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>26.94183327338784</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>76.15680114751095</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>103.0986344208985</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -38014,34 +38014,34 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.228150250882</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>46.3699026397042</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>47.19277018258603</v>
+        <v>47.19277018258599</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6884551618875</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0985501606199</v>
+        <v>317.0985501606198</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5760668848374</v>
+        <v>163.7790033628863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>225.9177968643873</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2980321780541</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.1282238331092</v>
+        <v>46.12822383310917</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T44" t="n">
         <v>18.54388781565676</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L45" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M45" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N45" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O45" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>103.0986344208987</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
